--- a/results/binary/evaluation_results_distilbert_distilbert-base-uncased.xlsx
+++ b/results/binary/evaluation_results_distilbert_distilbert-base-uncased.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8412371134020619</v>
+        <v>0.8422680412371134</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8410593131026604</v>
+        <v>0.8428654139375016</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8412371134020619</v>
+        <v>0.8422680412371134</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8422652321677827</v>
+        <v>0.8445827422817878</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7143852538729035</v>
+        <v>0.7198045007135613</v>
       </c>
     </row>
   </sheetData>
